--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il1b-Il1r1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il1b-Il1r1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.283888</v>
+        <v>0.3986426666666667</v>
       </c>
       <c r="H2">
-        <v>0.8516640000000001</v>
+        <v>1.195928</v>
       </c>
       <c r="I2">
-        <v>0.0007936627692614525</v>
+        <v>0.0008199831569982065</v>
       </c>
       <c r="J2">
-        <v>0.0007936627692614524</v>
+        <v>0.0008199831569982065</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.79587766666667</v>
+        <v>30.60409033333334</v>
       </c>
       <c r="N2">
-        <v>53.38763299999999</v>
+        <v>91.81227100000001</v>
       </c>
       <c r="O2">
-        <v>0.1793479316144739</v>
+        <v>0.2776440509987301</v>
       </c>
       <c r="P2">
-        <v>0.179347931614474</v>
+        <v>0.27764405099873</v>
       </c>
       <c r="Q2">
-        <v>5.052036119034667</v>
+        <v>12.20009618138756</v>
       </c>
       <c r="R2">
-        <v>45.468325071312</v>
+        <v>109.800865632488</v>
       </c>
       <c r="S2">
-        <v>0.000142341776066457</v>
+        <v>0.0002276634454597097</v>
       </c>
       <c r="T2">
-        <v>0.000142341776066457</v>
+        <v>0.0002276634454597097</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.283888</v>
+        <v>0.3986426666666667</v>
       </c>
       <c r="H3">
-        <v>0.8516640000000001</v>
+        <v>1.195928</v>
       </c>
       <c r="I3">
-        <v>0.0007936627692614525</v>
+        <v>0.0008199831569982065</v>
       </c>
       <c r="J3">
-        <v>0.0007936627692614524</v>
+        <v>0.0008199831569982065</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>217.185554</v>
       </c>
       <c r="O3">
-        <v>0.7296030503252249</v>
+        <v>0.6567779706806668</v>
       </c>
       <c r="P3">
-        <v>0.7296030503252251</v>
+        <v>0.6567779706806667</v>
       </c>
       <c r="Q3">
-        <v>20.55212418465067</v>
+        <v>28.85980946934578</v>
       </c>
       <c r="R3">
-        <v>184.969117661856</v>
+        <v>259.738285224112</v>
       </c>
       <c r="S3">
-        <v>0.0005790587773827208</v>
+        <v>0.0005385468738456086</v>
       </c>
       <c r="T3">
-        <v>0.0005790587773827209</v>
+        <v>0.0005385468738456086</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.283888</v>
+        <v>0.3986426666666667</v>
       </c>
       <c r="H4">
-        <v>0.8516640000000001</v>
+        <v>1.195928</v>
       </c>
       <c r="I4">
-        <v>0.0007936627692614525</v>
+        <v>0.0008199831569982065</v>
       </c>
       <c r="J4">
-        <v>0.0007936627692614524</v>
+        <v>0.0008199831569982065</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.257112</v>
+        <v>0.371039</v>
       </c>
       <c r="N4">
-        <v>0.771336</v>
+        <v>1.113117</v>
       </c>
       <c r="O4">
-        <v>0.00259119028895291</v>
+        <v>0.003366111193519582</v>
       </c>
       <c r="P4">
-        <v>0.00259119028895291</v>
+        <v>0.003366111193519582</v>
       </c>
       <c r="Q4">
-        <v>0.07299101145600001</v>
+        <v>0.1479119763973333</v>
       </c>
       <c r="R4">
-        <v>0.656919103104</v>
+        <v>1.331207787576</v>
       </c>
       <c r="S4">
-        <v>2.056531260413749E-06</v>
+        <v>2.760154483269188E-06</v>
       </c>
       <c r="T4">
-        <v>2.05653126041375E-06</v>
+        <v>2.760154483269187E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.283888</v>
+        <v>0.3986426666666667</v>
       </c>
       <c r="H5">
-        <v>0.8516640000000001</v>
+        <v>1.195928</v>
       </c>
       <c r="I5">
-        <v>0.0007936627692614525</v>
+        <v>0.0008199831569982065</v>
       </c>
       <c r="J5">
-        <v>0.0007936627692614524</v>
+        <v>0.0008199831569982065</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.314158666666666</v>
+        <v>6.687497333333333</v>
       </c>
       <c r="N5">
-        <v>24.942476</v>
+        <v>20.062492</v>
       </c>
       <c r="O5">
-        <v>0.08379059397414486</v>
+        <v>0.06066979382319835</v>
       </c>
       <c r="P5">
-        <v>0.08379059397414489</v>
+        <v>0.06066979382319834</v>
       </c>
       <c r="Q5">
-        <v>2.360289875562667</v>
+        <v>2.665921770286222</v>
       </c>
       <c r="R5">
-        <v>21.242608880064</v>
+        <v>23.993295932576</v>
       </c>
       <c r="S5">
-        <v>6.650147485158178E-05</v>
+        <v>4.974820907357647E-05</v>
       </c>
       <c r="T5">
-        <v>6.650147485158179E-05</v>
+        <v>4.974820907357646E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.283888</v>
+        <v>0.3986426666666667</v>
       </c>
       <c r="H6">
-        <v>0.8516640000000001</v>
+        <v>1.195928</v>
       </c>
       <c r="I6">
-        <v>0.0007936627692614525</v>
+        <v>0.0008199831569982065</v>
       </c>
       <c r="J6">
-        <v>0.0007936627692614524</v>
+        <v>0.0008199831569982065</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4631083333333333</v>
+        <v>0.1699793333333333</v>
       </c>
       <c r="N6">
-        <v>1.389325</v>
+        <v>0.509938</v>
       </c>
       <c r="O6">
-        <v>0.004667233797203165</v>
+        <v>0.001542073303885386</v>
       </c>
       <c r="P6">
-        <v>0.004667233797203166</v>
+        <v>0.001542073303885386</v>
       </c>
       <c r="Q6">
-        <v>0.1314708985333333</v>
+        <v>0.06776101471822223</v>
       </c>
       <c r="R6">
-        <v>1.1832380868</v>
+        <v>0.6098491324640001</v>
       </c>
       <c r="S6">
-        <v>3.704209700278909E-06</v>
+        <v>1.264474136042593E-06</v>
       </c>
       <c r="T6">
-        <v>3.704209700278909E-06</v>
+        <v>1.264474136042593E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.73316</v>
       </c>
       <c r="I7">
-        <v>0.0006832292968961075</v>
+        <v>0.0005026881646594152</v>
       </c>
       <c r="J7">
-        <v>0.0006832292968961073</v>
+        <v>0.0005026881646594152</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.79587766666667</v>
+        <v>30.60409033333334</v>
       </c>
       <c r="N7">
-        <v>53.38763299999999</v>
+        <v>91.81227100000001</v>
       </c>
       <c r="O7">
-        <v>0.1793479316144739</v>
+        <v>0.2776440509987301</v>
       </c>
       <c r="P7">
-        <v>0.179347931614474</v>
+        <v>0.27764405099873</v>
       </c>
       <c r="Q7">
-        <v>4.349075223364444</v>
+        <v>7.479231622928889</v>
       </c>
       <c r="R7">
-        <v>39.14167701028</v>
+        <v>67.31308460636001</v>
       </c>
       <c r="S7">
-        <v>0.0001225357612167282</v>
+        <v>0.0001395683784251567</v>
       </c>
       <c r="T7">
-        <v>0.0001225357612167282</v>
+        <v>0.0001395683784251567</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.73316</v>
       </c>
       <c r="I8">
-        <v>0.0006832292968961075</v>
+        <v>0.0005026881646594152</v>
       </c>
       <c r="J8">
-        <v>0.0006832292968961073</v>
+        <v>0.0005026881646594152</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>217.185554</v>
       </c>
       <c r="O8">
-        <v>0.7296030503252249</v>
+        <v>0.6567779706806668</v>
       </c>
       <c r="P8">
-        <v>0.7296030503252251</v>
+        <v>0.6567779706806667</v>
       </c>
       <c r="Q8">
         <v>17.69241786340444</v>
@@ -948,10 +948,10 @@
         <v>159.23176077064</v>
       </c>
       <c r="S8">
-        <v>0.0004984861790869587</v>
+        <v>0.0003301545126701996</v>
       </c>
       <c r="T8">
-        <v>0.0004984861790869587</v>
+        <v>0.0003301545126701995</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.73316</v>
       </c>
       <c r="I9">
-        <v>0.0006832292968961075</v>
+        <v>0.0005026881646594152</v>
       </c>
       <c r="J9">
-        <v>0.0006832292968961073</v>
+        <v>0.0005026881646594152</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.257112</v>
+        <v>0.371039</v>
       </c>
       <c r="N9">
-        <v>0.771336</v>
+        <v>1.113117</v>
       </c>
       <c r="O9">
-        <v>0.00259119028895291</v>
+        <v>0.003366111193519582</v>
       </c>
       <c r="P9">
-        <v>0.00259119028895291</v>
+        <v>0.003366111193519582</v>
       </c>
       <c r="Q9">
-        <v>0.06283474464</v>
+        <v>0.09067698441333333</v>
       </c>
       <c r="R9">
-        <v>0.56551270176</v>
+        <v>0.81609285972</v>
       </c>
       <c r="S9">
-        <v>1.770377119245318E-06</v>
+        <v>1.692104257909872E-06</v>
       </c>
       <c r="T9">
-        <v>1.770377119245318E-06</v>
+        <v>1.692104257909872E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.73316</v>
       </c>
       <c r="I10">
-        <v>0.0006832292968961075</v>
+        <v>0.0005026881646594152</v>
       </c>
       <c r="J10">
-        <v>0.0006832292968961073</v>
+        <v>0.0005026881646594152</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.314158666666666</v>
+        <v>6.687497333333333</v>
       </c>
       <c r="N10">
-        <v>24.942476</v>
+        <v>20.062492</v>
       </c>
       <c r="O10">
-        <v>0.08379059397414486</v>
+        <v>0.06066979382319835</v>
       </c>
       <c r="P10">
-        <v>0.08379059397414489</v>
+        <v>0.06066979382319834</v>
       </c>
       <c r="Q10">
-        <v>2.031869522684444</v>
+        <v>1.634335181635556</v>
       </c>
       <c r="R10">
-        <v>18.28682570416</v>
+        <v>14.70901663472</v>
       </c>
       <c r="S10">
-        <v>5.724818860746221E-05</v>
+        <v>3.04979873072487E-05</v>
       </c>
       <c r="T10">
-        <v>5.724818860746222E-05</v>
+        <v>3.04979873072487E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>0.73316</v>
       </c>
       <c r="I11">
-        <v>0.0006832292968961075</v>
+        <v>0.0005026881646594152</v>
       </c>
       <c r="J11">
-        <v>0.0006832292968961073</v>
+        <v>0.0005026881646594152</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.4631083333333333</v>
+        <v>0.1699793333333333</v>
       </c>
       <c r="N11">
-        <v>1.389325</v>
+        <v>0.509938</v>
       </c>
       <c r="O11">
-        <v>0.004667233797203165</v>
+        <v>0.001542073303885386</v>
       </c>
       <c r="P11">
-        <v>0.004667233797203166</v>
+        <v>0.001542073303885386</v>
       </c>
       <c r="Q11">
-        <v>0.1131775018888889</v>
+        <v>0.04154068267555556</v>
       </c>
       <c r="R11">
-        <v>1.018597517</v>
+        <v>0.37386614408</v>
       </c>
       <c r="S11">
-        <v>3.188790865712869E-06</v>
+        <v>7.751819989004253E-07</v>
       </c>
       <c r="T11">
-        <v>3.188790865712869E-06</v>
+        <v>7.751819989004251E-07</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>86.42549866666667</v>
+        <v>365.9520313333333</v>
       </c>
       <c r="H12">
-        <v>259.276496</v>
+        <v>1097.856094</v>
       </c>
       <c r="I12">
-        <v>0.2416188800040461</v>
+        <v>0.7527405545215428</v>
       </c>
       <c r="J12">
-        <v>0.241618880004046</v>
+        <v>0.7527405545215429</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.79587766666667</v>
+        <v>30.60409033333334</v>
       </c>
       <c r="N12">
-        <v>53.38763299999999</v>
+        <v>91.81227100000001</v>
       </c>
       <c r="O12">
-        <v>0.1793479316144739</v>
+        <v>0.2776440509987301</v>
       </c>
       <c r="P12">
-        <v>0.179347931614474</v>
+        <v>0.27764405099873</v>
       </c>
       <c r="Q12">
-        <v>1538.017601552663</v>
+        <v>11199.62902459216</v>
       </c>
       <c r="R12">
-        <v>13842.15841397397</v>
+        <v>100796.6612213295</v>
       </c>
       <c r="S12">
-        <v>0.04333384636773144</v>
+        <v>0.2089939369083916</v>
       </c>
       <c r="T12">
-        <v>0.04333384636773144</v>
+        <v>0.2089939369083916</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>86.42549866666667</v>
+        <v>365.9520313333333</v>
       </c>
       <c r="H13">
-        <v>259.276496</v>
+        <v>1097.856094</v>
       </c>
       <c r="I13">
-        <v>0.2416188800040461</v>
+        <v>0.7527405545215428</v>
       </c>
       <c r="J13">
-        <v>0.241618880004046</v>
+        <v>0.7527405545215429</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>217.185554</v>
       </c>
       <c r="O13">
-        <v>0.7296030503252249</v>
+        <v>0.6567779706806668</v>
       </c>
       <c r="P13">
-        <v>0.7296030503252251</v>
+        <v>0.6567779706806667</v>
       </c>
       <c r="Q13">
-        <v>6256.789935882087</v>
+        <v>26493.16488751845</v>
       </c>
       <c r="R13">
-        <v>56311.10942293878</v>
+        <v>238438.4839876661</v>
       </c>
       <c r="S13">
-        <v>0.1762858718671165</v>
+        <v>0.4943834138476987</v>
       </c>
       <c r="T13">
-        <v>0.1762858718671165</v>
+        <v>0.4943834138476987</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>86.42549866666667</v>
+        <v>365.9520313333333</v>
       </c>
       <c r="H14">
-        <v>259.276496</v>
+        <v>1097.856094</v>
       </c>
       <c r="I14">
-        <v>0.2416188800040461</v>
+        <v>0.7527405545215428</v>
       </c>
       <c r="J14">
-        <v>0.241618880004046</v>
+        <v>0.7527405545215429</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.257112</v>
+        <v>0.371039</v>
       </c>
       <c r="N14">
-        <v>0.771336</v>
+        <v>1.113117</v>
       </c>
       <c r="O14">
-        <v>0.00259119028895291</v>
+        <v>0.003366111193519582</v>
       </c>
       <c r="P14">
-        <v>0.00259119028895291</v>
+        <v>0.003366111193519582</v>
       </c>
       <c r="Q14">
-        <v>22.221032813184</v>
+        <v>135.7824757538886</v>
       </c>
       <c r="R14">
-        <v>199.989295318656</v>
+        <v>1222.042281784998</v>
       </c>
       <c r="S14">
-        <v>0.0006260804954941625</v>
+        <v>0.002533808406391103</v>
       </c>
       <c r="T14">
-        <v>0.0006260804954941626</v>
+        <v>0.002533808406391102</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>86.42549866666667</v>
+        <v>365.9520313333333</v>
       </c>
       <c r="H15">
-        <v>259.276496</v>
+        <v>1097.856094</v>
       </c>
       <c r="I15">
-        <v>0.2416188800040461</v>
+        <v>0.7527405545215428</v>
       </c>
       <c r="J15">
-        <v>0.241618880004046</v>
+        <v>0.7527405545215429</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.314158666666666</v>
+        <v>6.687497333333333</v>
       </c>
       <c r="N15">
-        <v>24.942476</v>
+        <v>20.062492</v>
       </c>
       <c r="O15">
-        <v>0.08379059397414486</v>
+        <v>0.06066979382319835</v>
       </c>
       <c r="P15">
-        <v>0.08379059397414489</v>
+        <v>0.06066979382319834</v>
       </c>
       <c r="Q15">
-        <v>718.5553087604551</v>
+        <v>2447.303233669583</v>
       </c>
       <c r="R15">
-        <v>6466.997778844096</v>
+        <v>22025.72910302625</v>
       </c>
       <c r="S15">
-        <v>0.02024538947090665</v>
+        <v>0.045668614245182</v>
       </c>
       <c r="T15">
-        <v>0.02024538947090666</v>
+        <v>0.04566861424518199</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>86.42549866666667</v>
+        <v>365.9520313333333</v>
       </c>
       <c r="H16">
-        <v>259.276496</v>
+        <v>1097.856094</v>
       </c>
       <c r="I16">
-        <v>0.2416188800040461</v>
+        <v>0.7527405545215428</v>
       </c>
       <c r="J16">
-        <v>0.241618880004046</v>
+        <v>0.7527405545215429</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4631083333333333</v>
+        <v>0.1699793333333333</v>
       </c>
       <c r="N16">
-        <v>1.389325</v>
+        <v>0.509938</v>
       </c>
       <c r="O16">
-        <v>0.004667233797203165</v>
+        <v>0.001542073303885386</v>
       </c>
       <c r="P16">
-        <v>0.004667233797203166</v>
+        <v>0.001542073303885386</v>
       </c>
       <c r="Q16">
-        <v>40.02436864502222</v>
+        <v>62.20428231801911</v>
       </c>
       <c r="R16">
-        <v>360.2193178052</v>
+        <v>559.838540862172</v>
       </c>
       <c r="S16">
-        <v>0.00112769180279726</v>
+        <v>0.001160781113879553</v>
       </c>
       <c r="T16">
-        <v>0.00112769180279726</v>
+        <v>0.001160781113879553</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.06768933333333334</v>
+        <v>0.08320699999999999</v>
       </c>
       <c r="H17">
-        <v>0.203068</v>
+        <v>0.249621</v>
       </c>
       <c r="I17">
-        <v>0.000189238374791449</v>
+        <v>0.000171151620860996</v>
       </c>
       <c r="J17">
-        <v>0.000189238374791449</v>
+        <v>0.0001711516208609961</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.79587766666667</v>
+        <v>30.60409033333334</v>
       </c>
       <c r="N17">
-        <v>53.38763299999999</v>
+        <v>91.81227100000001</v>
       </c>
       <c r="O17">
-        <v>0.1793479316144739</v>
+        <v>0.2776440509987301</v>
       </c>
       <c r="P17">
-        <v>0.179347931614474</v>
+        <v>0.27764405099873</v>
       </c>
       <c r="Q17">
-        <v>1.204591095338222</v>
+        <v>2.546474544365667</v>
       </c>
       <c r="R17">
-        <v>10.841319858044</v>
+        <v>22.918270899291</v>
       </c>
       <c r="S17">
-        <v>3.393951110093098E-05</v>
+        <v>4.751922935084569E-05</v>
       </c>
       <c r="T17">
-        <v>3.393951110093099E-05</v>
+        <v>4.751922935084569E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.06768933333333334</v>
+        <v>0.08320699999999999</v>
       </c>
       <c r="H18">
-        <v>0.203068</v>
+        <v>0.249621</v>
       </c>
       <c r="I18">
-        <v>0.000189238374791449</v>
+        <v>0.000171151620860996</v>
       </c>
       <c r="J18">
-        <v>0.000189238374791449</v>
+        <v>0.0001711516208609961</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>217.185554</v>
       </c>
       <c r="O18">
-        <v>0.7296030503252249</v>
+        <v>0.6567779706806668</v>
       </c>
       <c r="P18">
-        <v>0.7296030503252251</v>
+        <v>0.6567779706806667</v>
       </c>
       <c r="Q18">
-        <v>4.900381786630223</v>
+        <v>6.023786130559333</v>
       </c>
       <c r="R18">
-        <v>44.103436079672</v>
+        <v>54.214075175034</v>
       </c>
       <c r="S18">
-        <v>0.0001380688954864293</v>
+        <v>0.0001124086142277919</v>
       </c>
       <c r="T18">
-        <v>0.0001380688954864294</v>
+        <v>0.0001124086142277919</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.06768933333333334</v>
+        <v>0.08320699999999999</v>
       </c>
       <c r="H19">
-        <v>0.203068</v>
+        <v>0.249621</v>
       </c>
       <c r="I19">
-        <v>0.000189238374791449</v>
+        <v>0.000171151620860996</v>
       </c>
       <c r="J19">
-        <v>0.000189238374791449</v>
+        <v>0.0001711516208609961</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.257112</v>
+        <v>0.371039</v>
       </c>
       <c r="N19">
-        <v>0.771336</v>
+        <v>1.113117</v>
       </c>
       <c r="O19">
-        <v>0.00259119028895291</v>
+        <v>0.003366111193519582</v>
       </c>
       <c r="P19">
-        <v>0.00259119028895291</v>
+        <v>0.003366111193519582</v>
       </c>
       <c r="Q19">
-        <v>0.017403739872</v>
+        <v>0.03087304207299999</v>
       </c>
       <c r="R19">
-        <v>0.156633658848</v>
+        <v>0.2778573786569999</v>
       </c>
       <c r="S19">
-        <v>4.903526390568337E-07</v>
+        <v>5.761153867692185E-07</v>
       </c>
       <c r="T19">
-        <v>4.903526390568338E-07</v>
+        <v>5.761153867692184E-07</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.06768933333333334</v>
+        <v>0.08320699999999999</v>
       </c>
       <c r="H20">
-        <v>0.203068</v>
+        <v>0.249621</v>
       </c>
       <c r="I20">
-        <v>0.000189238374791449</v>
+        <v>0.000171151620860996</v>
       </c>
       <c r="J20">
-        <v>0.000189238374791449</v>
+        <v>0.0001711516208609961</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.314158666666666</v>
+        <v>6.687497333333333</v>
       </c>
       <c r="N20">
-        <v>24.942476</v>
+        <v>20.062492</v>
       </c>
       <c r="O20">
-        <v>0.08379059397414486</v>
+        <v>0.06066979382319835</v>
       </c>
       <c r="P20">
-        <v>0.08379059397414489</v>
+        <v>0.06066979382319834</v>
       </c>
       <c r="Q20">
-        <v>0.5627798573742222</v>
+        <v>0.5564465906146666</v>
       </c>
       <c r="R20">
-        <v>5.065018716368</v>
+        <v>5.008019315532</v>
       </c>
       <c r="S20">
-        <v>1.585639582647735E-05</v>
+        <v>1.038373355014284E-05</v>
       </c>
       <c r="T20">
-        <v>1.585639582647736E-05</v>
+        <v>1.038373355014284E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.06768933333333334</v>
+        <v>0.08320699999999999</v>
       </c>
       <c r="H21">
-        <v>0.203068</v>
+        <v>0.249621</v>
       </c>
       <c r="I21">
-        <v>0.000189238374791449</v>
+        <v>0.000171151620860996</v>
       </c>
       <c r="J21">
-        <v>0.000189238374791449</v>
+        <v>0.0001711516208609961</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.4631083333333333</v>
+        <v>0.1699793333333333</v>
       </c>
       <c r="N21">
-        <v>1.389325</v>
+        <v>0.509938</v>
       </c>
       <c r="O21">
-        <v>0.004667233797203165</v>
+        <v>0.001542073303885386</v>
       </c>
       <c r="P21">
-        <v>0.004667233797203166</v>
+        <v>0.001542073303885386</v>
       </c>
       <c r="Q21">
-        <v>0.03134749434444444</v>
+        <v>0.01414347038866666</v>
       </c>
       <c r="R21">
-        <v>0.2821274491</v>
+        <v>0.127291233498</v>
       </c>
       <c r="S21">
-        <v>8.832197385544503E-07</v>
+        <v>2.639283454464551E-07</v>
       </c>
       <c r="T21">
-        <v>8.832197385544503E-07</v>
+        <v>2.639283454464551E-07</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>270.67202</v>
+        <v>119.4813116666667</v>
       </c>
       <c r="H22">
-        <v>812.01606</v>
+        <v>358.443935</v>
       </c>
       <c r="I22">
-        <v>0.7567149895550049</v>
+        <v>0.2457656225359385</v>
       </c>
       <c r="J22">
-        <v>0.7567149895550048</v>
+        <v>0.2457656225359385</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>17.79587766666667</v>
+        <v>30.60409033333334</v>
       </c>
       <c r="N22">
-        <v>53.38763299999999</v>
+        <v>91.81227100000001</v>
       </c>
       <c r="O22">
-        <v>0.1793479316144739</v>
+        <v>0.2776440509987301</v>
       </c>
       <c r="P22">
-        <v>0.179347931614474</v>
+        <v>0.27764405099873</v>
       </c>
       <c r="Q22">
-        <v>4816.846155709553</v>
+        <v>3656.616855391821</v>
       </c>
       <c r="R22">
-        <v>43351.61540138598</v>
+        <v>32909.55169852639</v>
       </c>
       <c r="S22">
-        <v>0.1357152681983584</v>
+        <v>0.06823536303710276</v>
       </c>
       <c r="T22">
-        <v>0.1357152681983584</v>
+        <v>0.06823536303710274</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>270.67202</v>
+        <v>119.4813116666667</v>
       </c>
       <c r="H23">
-        <v>812.01606</v>
+        <v>358.443935</v>
       </c>
       <c r="I23">
-        <v>0.7567149895550049</v>
+        <v>0.2457656225359385</v>
       </c>
       <c r="J23">
-        <v>0.7567149895550048</v>
+        <v>0.2457656225359385</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>217.185554</v>
       </c>
       <c r="O23">
-        <v>0.7296030503252249</v>
+        <v>0.6567779706806668</v>
       </c>
       <c r="P23">
-        <v>0.7296030503252251</v>
+        <v>0.6567779706806667</v>
       </c>
       <c r="Q23">
-        <v>19595.35087199969</v>
+        <v>8649.871622323888</v>
       </c>
       <c r="R23">
-        <v>176358.1578479972</v>
+        <v>77848.84460091499</v>
       </c>
       <c r="S23">
-        <v>0.5521015646061522</v>
+        <v>0.1614134468322245</v>
       </c>
       <c r="T23">
-        <v>0.5521015646061523</v>
+        <v>0.1614134468322244</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>270.67202</v>
+        <v>119.4813116666667</v>
       </c>
       <c r="H24">
-        <v>812.01606</v>
+        <v>358.443935</v>
       </c>
       <c r="I24">
-        <v>0.7567149895550049</v>
+        <v>0.2457656225359385</v>
       </c>
       <c r="J24">
-        <v>0.7567149895550048</v>
+        <v>0.2457656225359385</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.257112</v>
+        <v>0.371039</v>
       </c>
       <c r="N24">
-        <v>0.771336</v>
+        <v>1.113117</v>
       </c>
       <c r="O24">
-        <v>0.00259119028895291</v>
+        <v>0.003366111193519582</v>
       </c>
       <c r="P24">
-        <v>0.00259119028895291</v>
+        <v>0.003366111193519582</v>
       </c>
       <c r="Q24">
-        <v>69.59302440624</v>
+        <v>44.33222639948833</v>
       </c>
       <c r="R24">
-        <v>626.3372196561601</v>
+        <v>398.990037595395</v>
       </c>
       <c r="S24">
-        <v>0.001960792532440031</v>
+        <v>0.0008272744130005313</v>
       </c>
       <c r="T24">
-        <v>0.001960792532440032</v>
+        <v>0.000827274413000531</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>270.67202</v>
+        <v>119.4813116666667</v>
       </c>
       <c r="H25">
-        <v>812.01606</v>
+        <v>358.443935</v>
       </c>
       <c r="I25">
-        <v>0.7567149895550049</v>
+        <v>0.2457656225359385</v>
       </c>
       <c r="J25">
-        <v>0.7567149895550048</v>
+        <v>0.2457656225359385</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.314158666666666</v>
+        <v>6.687497333333333</v>
       </c>
       <c r="N25">
-        <v>24.942476</v>
+        <v>20.062492</v>
       </c>
       <c r="O25">
-        <v>0.08379059397414486</v>
+        <v>0.06066979382319835</v>
       </c>
       <c r="P25">
-        <v>0.08379059397414489</v>
+        <v>0.06066979382319834</v>
       </c>
       <c r="Q25">
-        <v>2250.410120907173</v>
+        <v>799.0309531540022</v>
       </c>
       <c r="R25">
-        <v>20253.69108816456</v>
+        <v>7191.27857838602</v>
       </c>
       <c r="S25">
-        <v>0.06340559844395269</v>
+        <v>0.01491054964808538</v>
       </c>
       <c r="T25">
-        <v>0.0634055984439527</v>
+        <v>0.01491054964808538</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>270.67202</v>
+        <v>119.4813116666667</v>
       </c>
       <c r="H26">
-        <v>812.01606</v>
+        <v>358.443935</v>
       </c>
       <c r="I26">
-        <v>0.7567149895550049</v>
+        <v>0.2457656225359385</v>
       </c>
       <c r="J26">
-        <v>0.7567149895550048</v>
+        <v>0.2457656225359385</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.4631083333333333</v>
+        <v>0.1699793333333333</v>
       </c>
       <c r="N26">
-        <v>1.389325</v>
+        <v>0.509938</v>
       </c>
       <c r="O26">
-        <v>0.004667233797203165</v>
+        <v>0.001542073303885386</v>
       </c>
       <c r="P26">
-        <v>0.004667233797203166</v>
+        <v>0.001542073303885386</v>
       </c>
       <c r="Q26">
-        <v>125.3504680621667</v>
+        <v>20.30935370289222</v>
       </c>
       <c r="R26">
-        <v>1128.1542125595</v>
+        <v>182.78418332603</v>
       </c>
       <c r="S26">
-        <v>0.003531765774101359</v>
+        <v>0.0003789886055254434</v>
       </c>
       <c r="T26">
-        <v>0.003531765774101359</v>
+        <v>0.0003789886055254433</v>
       </c>
     </row>
   </sheetData>
